--- a/hw3/validate/result.xlsx
+++ b/hw3/validate/result.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Homework\Advance Pattern Recognition\hw3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Homework\Advance Pattern Recognition\hw3\validate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{54474D3F-6FFF-43E0-9CC6-82133E1D868A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241B04B4-67C1-4EA9-8213-4F1756DD7DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="60" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{8A1EE093-234E-42C2-A195-A4A8C81E4489}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{8A1EE093-234E-42C2-A195-A4A8C81E4489}"/>
   </bookViews>
   <sheets>
-    <sheet name="34Features" sheetId="1" r:id="rId1"/>
-    <sheet name="15Features" sheetId="2" r:id="rId2"/>
+    <sheet name="Best_subsets" sheetId="2" r:id="rId1"/>
+    <sheet name="Worst_subset" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="15">
   <si>
     <t>Fold 1</t>
   </si>
@@ -75,15 +75,21 @@
   <si>
     <t>Acc</t>
   </si>
+  <si>
+    <t>Best subsets features</t>
+  </si>
+  <si>
+    <t>Worst subsets features</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,14 +112,8 @@
       <family val="2"/>
       <charset val="222"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -132,8 +132,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -252,11 +258,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -276,22 +293,31 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -607,11 +633,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3214571-9BA0-42F6-B46A-208EE114AA2E}">
-  <dimension ref="A1:Q20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{055C42B1-95B7-4D3F-BF4F-3838BB70B52E}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M7" sqref="M7:M8"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.3"/>
@@ -621,14 +647,14 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1">
         <f>SUM(A1,B2)/SUM(A1:B2)</f>
-        <v>0.68571428571428572</v>
+        <v>0.94285714285714284</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -641,35 +667,45 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1">
         <f>SUM(A3,B4)/SUM(A3:B4)</f>
-        <v>0.65714285714285714</v>
+        <v>0.88571428571428568</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" ref="D5:D20" si="0">SUM(A5,B6)/SUM(A5:B6)</f>
-        <v>0.54285714285714282</v>
-      </c>
+        <f t="shared" ref="D5" si="0">SUM(A5,B6)/SUM(A5:B6)</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="15"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -681,115 +717,123 @@
       <c r="J6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" s="8"/>
-      <c r="M6" s="9" t="s">
+      <c r="K6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="9"/>
+      <c r="M6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="9" t="s">
+      <c r="O6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" ref="D7:D20" si="1">SUM(A7,B8)/SUM(A7:B8)</f>
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="J7" s="7" t="s">
+        <f t="shared" ref="D7" si="1">SUM(A7,B8)/SUM(A7:B8)</f>
+        <v>0.82857142857142863</v>
+      </c>
+      <c r="J7" s="8" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="3">
-        <v>6</v>
+        <f>A1</f>
+        <v>15</v>
       </c>
       <c r="L7" s="4">
-        <v>11</v>
+        <f>B1</f>
+        <v>2</v>
       </c>
       <c r="M7" s="10">
         <f>D1</f>
-        <v>0.68571428571428572</v>
-      </c>
-      <c r="N7" s="7" t="s">
+        <v>0.94285714285714284</v>
+      </c>
+      <c r="N7" s="8" t="s">
         <v>11</v>
       </c>
       <c r="O7" s="3">
-        <v>6</v>
+        <f>A3</f>
+        <v>15</v>
       </c>
       <c r="P7" s="4">
-        <v>12</v>
+        <f>B3</f>
+        <v>3</v>
       </c>
       <c r="Q7" s="10">
         <f>D3</f>
-        <v>0.65714285714285714</v>
+        <v>0.88571428571428568</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B8" s="1">
+        <v>16</v>
+      </c>
+      <c r="J8" s="8"/>
+      <c r="K8" s="5">
+        <f>A2</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="6">
+        <f>B2</f>
         <v>18</v>
       </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="5">
-        <v>0</v>
-      </c>
-      <c r="L8" s="6">
-        <v>18</v>
-      </c>
       <c r="M8" s="10"/>
-      <c r="N8" s="7"/>
+      <c r="N8" s="8"/>
       <c r="O8" s="5">
-        <v>0</v>
+        <f>A4</f>
+        <v>1</v>
       </c>
       <c r="P8" s="6">
-        <v>17</v>
+        <f>B4</f>
+        <v>16</v>
       </c>
       <c r="Q8" s="10"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" ref="D9:D20" si="2">SUM(A9,B10)/SUM(A9:B10)</f>
-        <v>0.74285714285714288</v>
+        <f t="shared" ref="D9" si="2">SUM(A9,B10)/SUM(A9:B10)</f>
+        <v>0.91428571428571426</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" s="8"/>
-      <c r="M9" s="9" t="s">
+      <c r="K9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="9"/>
+      <c r="M9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="9" t="s">
+      <c r="O9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="7" t="s">
         <v>12</v>
       </c>
     </row>
@@ -800,125 +844,137 @@
       <c r="B10" s="1">
         <v>16</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="8" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="3">
-        <v>1</v>
+        <f>A5</f>
+        <v>12</v>
       </c>
       <c r="L10" s="4">
-        <v>16</v>
+        <f>B5</f>
+        <v>5</v>
       </c>
       <c r="M10" s="11">
         <f>D5</f>
-        <v>0.54285714285714282</v>
-      </c>
-      <c r="N10" s="7" t="s">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="N10" s="8" t="s">
         <v>11</v>
       </c>
       <c r="O10" s="3">
-        <v>7</v>
+        <f>A7</f>
+        <v>13</v>
       </c>
       <c r="P10" s="4">
-        <v>10</v>
+        <f>B7</f>
+        <v>4</v>
       </c>
       <c r="Q10" s="10">
         <f>D7</f>
-        <v>0.7142857142857143</v>
+        <v>0.82857142857142863</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" ref="D11:D20" si="3">SUM(A11,B12)/SUM(A11:B12)</f>
-        <v>0.77142857142857146</v>
-      </c>
-      <c r="J11" s="7"/>
+        <f t="shared" ref="D11" si="3">SUM(A11,B12)/SUM(A11:B12)</f>
+        <v>0.91428571428571426</v>
+      </c>
+      <c r="J11" s="8"/>
       <c r="K11" s="5">
+        <f>A6</f>
         <v>0</v>
       </c>
       <c r="L11" s="6">
+        <f>B6</f>
         <v>18</v>
       </c>
       <c r="M11" s="12"/>
-      <c r="N11" s="7"/>
+      <c r="N11" s="8"/>
       <c r="O11" s="5">
-        <v>0</v>
+        <f>A8</f>
+        <v>2</v>
       </c>
       <c r="P11" s="6">
-        <v>18</v>
+        <f>B8</f>
+        <v>16</v>
       </c>
       <c r="Q11" s="10"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B12" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L12" s="8"/>
-      <c r="M12" s="9" t="s">
+      <c r="K12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="9"/>
+      <c r="M12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="9" t="s">
+      <c r="O12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" ref="D13:D20" si="4">SUM(A13,B14)/SUM(A13:B14)</f>
-        <v>0.65714285714285714</v>
-      </c>
-      <c r="J13" s="7" t="s">
+        <f t="shared" ref="D13" si="4">SUM(A13,B14)/SUM(A13:B14)</f>
+        <v>0.91428571428571426</v>
+      </c>
+      <c r="J13" s="8" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="3">
-        <v>10</v>
+        <f>A9</f>
+        <v>16</v>
       </c>
       <c r="L13" s="4">
-        <v>8</v>
+        <f>B9</f>
+        <v>2</v>
       </c>
       <c r="M13" s="11">
         <f>D9</f>
-        <v>0.74285714285714288</v>
-      </c>
-      <c r="N13" s="7" t="s">
+        <v>0.91428571428571426</v>
+      </c>
+      <c r="N13" s="8" t="s">
         <v>11</v>
       </c>
       <c r="O13" s="3">
-        <v>9</v>
+        <f>A11</f>
+        <v>16</v>
       </c>
       <c r="P13" s="4">
-        <v>8</v>
+        <f>B11</f>
+        <v>1</v>
       </c>
       <c r="Q13" s="10">
         <f>D11</f>
-        <v>0.77142857142857146</v>
+        <v>0.91428571428571426</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -928,20 +984,24 @@
       <c r="B14" s="1">
         <v>17</v>
       </c>
-      <c r="J14" s="7"/>
+      <c r="J14" s="8"/>
       <c r="K14" s="5">
+        <f>A10</f>
         <v>1</v>
       </c>
       <c r="L14" s="6">
+        <f>B10</f>
         <v>16</v>
       </c>
       <c r="M14" s="12"/>
-      <c r="N14" s="7"/>
+      <c r="N14" s="8"/>
       <c r="O14" s="5">
-        <v>0</v>
+        <f>A12</f>
+        <v>2</v>
       </c>
       <c r="P14" s="6">
-        <v>18</v>
+        <f>B12</f>
+        <v>16</v>
       </c>
       <c r="Q14" s="10"/>
     </row>
@@ -953,27 +1013,27 @@
         <v>1</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" ref="D15:D20" si="5">SUM(A15,B16)/SUM(A15:B16)</f>
+        <f t="shared" ref="D15" si="5">SUM(A15,B16)/SUM(A15:B16)</f>
         <v>0.97142857142857142</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L15" s="8"/>
-      <c r="M15" s="9" t="s">
+      <c r="K15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="9"/>
+      <c r="M15" s="7" t="s">
         <v>12</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="9" t="s">
+      <c r="O15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="7" t="s">
         <v>12</v>
       </c>
     </row>
@@ -984,26 +1044,30 @@
       <c r="B16" s="1">
         <v>31</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="J16" s="8" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="3">
-        <v>6</v>
+        <f>A13</f>
+        <v>15</v>
       </c>
       <c r="L16" s="4">
-        <v>12</v>
+        <f>B13</f>
+        <v>3</v>
       </c>
       <c r="M16" s="11">
         <f>D13</f>
-        <v>0.65714285714285714</v>
-      </c>
-      <c r="N16" s="7" t="s">
+        <v>0.91428571428571426</v>
+      </c>
+      <c r="N16" s="8" t="s">
         <v>11</v>
       </c>
       <c r="O16" s="3">
+        <f>A15</f>
         <v>3</v>
       </c>
       <c r="P16" s="4">
+        <f>B15</f>
         <v>1</v>
       </c>
       <c r="Q16" s="10">
@@ -1019,51 +1083,55 @@
         <v>0</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" ref="D17:D20" si="6">SUM(A17,B18)/SUM(A17:B18)</f>
-        <v>1</v>
-      </c>
-      <c r="J17" s="7"/>
+        <f t="shared" ref="D17" si="6">SUM(A17,B18)/SUM(A17:B18)</f>
+        <v>0.94285714285714284</v>
+      </c>
+      <c r="J17" s="8"/>
       <c r="K17" s="5">
+        <f>A14</f>
         <v>0</v>
       </c>
       <c r="L17" s="6">
+        <f>B14</f>
         <v>17</v>
       </c>
       <c r="M17" s="12"/>
-      <c r="N17" s="7"/>
+      <c r="N17" s="8"/>
       <c r="O17" s="5">
+        <f>A16</f>
         <v>0</v>
       </c>
       <c r="P17" s="6">
+        <f>B16</f>
         <v>31</v>
       </c>
       <c r="Q17" s="10"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B18" s="1">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L18" s="8"/>
-      <c r="M18" s="9" t="s">
+      <c r="K18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L18" s="9"/>
+      <c r="M18" s="7" t="s">
         <v>12</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="9" t="s">
+      <c r="O18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="7" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1075,640 +1143,77 @@
         <v>0</v>
       </c>
       <c r="D19" s="1">
-        <f>SUM(A19,B20)/SUM(A19:B20)</f>
-        <v>0.97222222222222221</v>
-      </c>
-      <c r="J19" s="7" t="s">
+        <f t="shared" ref="D19" si="7">SUM(A19,B20)/SUM(A19:B20)</f>
+        <v>1</v>
+      </c>
+      <c r="J19" s="8" t="s">
         <v>11</v>
       </c>
       <c r="K19" s="3">
+        <f>A17</f>
         <v>0</v>
       </c>
       <c r="L19" s="4">
+        <f>B17</f>
         <v>0</v>
       </c>
       <c r="M19" s="10">
         <f>D17</f>
-        <v>1</v>
-      </c>
-      <c r="N19" s="7" t="s">
+        <v>0.94285714285714284</v>
+      </c>
+      <c r="N19" s="8" t="s">
         <v>11</v>
       </c>
       <c r="O19" s="3">
+        <f>A19</f>
         <v>0</v>
       </c>
       <c r="P19" s="4">
+        <f>B19</f>
         <v>0</v>
       </c>
       <c r="Q19" s="10">
         <f>D19</f>
-        <v>0.97222222222222221</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B20" s="1">
-        <v>35</v>
-      </c>
-      <c r="J20" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="J20" s="8"/>
       <c r="K20" s="5">
-        <v>0</v>
+        <f>A18</f>
+        <v>2</v>
       </c>
       <c r="L20" s="6">
-        <v>35</v>
+        <f>B18</f>
+        <v>33</v>
       </c>
       <c r="M20" s="10"/>
-      <c r="N20" s="7"/>
+      <c r="N20" s="8"/>
       <c r="O20" s="5">
-        <v>1</v>
+        <f>A20</f>
+        <v>0</v>
       </c>
       <c r="P20" s="6">
-        <v>35</v>
+        <f>B20</f>
+        <v>36</v>
       </c>
       <c r="Q20" s="10"/>
     </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J22" s="1">
+        <f>SUM(D1:D20)/10</f>
+        <v>0.91714285714285726</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="Q7:Q8"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{055C42B1-95B7-4D3F-BF4F-3838BB70B52E}">
-  <dimension ref="A1:Q20"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="1">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1">
-        <f>SUM(A1,B2)/SUM(A1:B2)</f>
-        <v>0.77142857142857146</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1">
-        <f>SUM(A3,B4)/SUM(A3:B4)</f>
-        <v>0.82857142857142863</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1">
-        <f t="shared" ref="D5:D20" si="0">SUM(A5,B6)/SUM(A5:B6)</f>
-        <v>0.91428571428571426</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1">
-        <v>28</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" s="8"/>
-      <c r="M6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>4</v>
-      </c>
-      <c r="D7" s="1">
-        <f t="shared" ref="D7:D20" si="1">SUM(A7,B8)/SUM(A7:B8)</f>
-        <v>0.88571428571428568</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="3">
-        <v>6</v>
-      </c>
-      <c r="L7" s="4">
-        <v>11</v>
-      </c>
-      <c r="M7" s="10">
-        <f>D1</f>
-        <v>0.77142857142857146</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="O7" s="3">
-        <v>6</v>
-      </c>
-      <c r="P7" s="4">
-        <v>12</v>
-      </c>
-      <c r="Q7" s="10">
-        <f>D3</f>
-        <v>0.82857142857142863</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>0</v>
-      </c>
-      <c r="B8" s="1">
-        <v>25</v>
-      </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="5">
-        <v>0</v>
-      </c>
-      <c r="L8" s="6">
-        <v>18</v>
-      </c>
-      <c r="M8" s="10"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="5">
-        <v>0</v>
-      </c>
-      <c r="P8" s="6">
-        <v>17</v>
-      </c>
-      <c r="Q8" s="10"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1">
-        <v>3</v>
-      </c>
-      <c r="D9" s="1">
-        <f t="shared" ref="D9:D20" si="2">SUM(A9,B10)/SUM(A9:B10)</f>
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" s="8"/>
-      <c r="M9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>2</v>
-      </c>
-      <c r="B10" s="1">
-        <v>23</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="3">
-        <v>1</v>
-      </c>
-      <c r="L10" s="4">
-        <v>16</v>
-      </c>
-      <c r="M10" s="11">
-        <f>D5</f>
-        <v>0.91428571428571426</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="O10" s="3">
-        <v>7</v>
-      </c>
-      <c r="P10" s="4">
-        <v>10</v>
-      </c>
-      <c r="Q10" s="10">
-        <f>D7</f>
-        <v>0.88571428571428568</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>3</v>
-      </c>
-      <c r="B11" s="1">
-        <v>5</v>
-      </c>
-      <c r="D11" s="1">
-        <f t="shared" ref="D11:D20" si="3">SUM(A11,B12)/SUM(A11:B12)</f>
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="J11" s="7"/>
-      <c r="K11" s="5">
-        <v>0</v>
-      </c>
-      <c r="L11" s="6">
-        <v>18</v>
-      </c>
-      <c r="M11" s="12"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="5">
-        <v>0</v>
-      </c>
-      <c r="P11" s="6">
-        <v>18</v>
-      </c>
-      <c r="Q11" s="10"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>0</v>
-      </c>
-      <c r="B12" s="1">
-        <v>27</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L12" s="8"/>
-      <c r="M12" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>10</v>
-      </c>
-      <c r="B13" s="1">
-        <v>4</v>
-      </c>
-      <c r="D13" s="1">
-        <f t="shared" ref="D13:D20" si="4">SUM(A13,B14)/SUM(A13:B14)</f>
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="3">
-        <v>10</v>
-      </c>
-      <c r="L13" s="4">
-        <v>8</v>
-      </c>
-      <c r="M13" s="11">
-        <f>D9</f>
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="O13" s="3">
-        <v>9</v>
-      </c>
-      <c r="P13" s="4">
-        <v>8</v>
-      </c>
-      <c r="Q13" s="10">
-        <f>D11</f>
-        <v>0.8571428571428571</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>1</v>
-      </c>
-      <c r="B14" s="1">
-        <v>20</v>
-      </c>
-      <c r="J14" s="7"/>
-      <c r="K14" s="5">
-        <v>1</v>
-      </c>
-      <c r="L14" s="6">
-        <v>16</v>
-      </c>
-      <c r="M14" s="12"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="5">
-        <v>0</v>
-      </c>
-      <c r="P14" s="6">
-        <v>18</v>
-      </c>
-      <c r="Q14" s="10"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>10</v>
-      </c>
-      <c r="B15" s="1">
-        <v>9</v>
-      </c>
-      <c r="D15" s="1">
-        <f t="shared" ref="D15:D20" si="5">SUM(A15,B16)/SUM(A15:B16)</f>
-        <v>0.74285714285714288</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L15" s="8"/>
-      <c r="M15" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>0</v>
-      </c>
-      <c r="B16" s="1">
-        <v>16</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="3">
-        <v>6</v>
-      </c>
-      <c r="L16" s="4">
-        <v>12</v>
-      </c>
-      <c r="M16" s="11">
-        <f>D13</f>
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="N16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="O16" s="3">
-        <v>3</v>
-      </c>
-      <c r="P16" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="10">
-        <f>D15</f>
-        <v>0.74285714285714288</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>7</v>
-      </c>
-      <c r="B17" s="1">
-        <v>8</v>
-      </c>
-      <c r="D17" s="1">
-        <f t="shared" ref="D17:D20" si="6">SUM(A17,B18)/SUM(A17:B18)</f>
-        <v>0.77142857142857146</v>
-      </c>
-      <c r="J17" s="7"/>
-      <c r="K17" s="5">
-        <v>0</v>
-      </c>
-      <c r="L17" s="6">
-        <v>17</v>
-      </c>
-      <c r="M17" s="12"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="5">
-        <v>0</v>
-      </c>
-      <c r="P17" s="6">
-        <v>31</v>
-      </c>
-      <c r="Q17" s="10"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>0</v>
-      </c>
-      <c r="B18" s="1">
-        <v>20</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L18" s="8"/>
-      <c r="M18" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>9</v>
-      </c>
-      <c r="B19" s="1">
-        <v>5</v>
-      </c>
-      <c r="D19" s="1">
-        <f t="shared" ref="D19:D20" si="7">SUM(A19,B20)/SUM(A19:B20)</f>
-        <v>0.86111111111111116</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="3">
-        <v>0</v>
-      </c>
-      <c r="L19" s="4">
-        <v>0</v>
-      </c>
-      <c r="M19" s="10">
-        <f>D17</f>
-        <v>0.77142857142857146</v>
-      </c>
-      <c r="N19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="O19" s="3">
-        <v>0</v>
-      </c>
-      <c r="P19" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="10">
-        <f>D19</f>
-        <v>0.86111111111111116</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>0</v>
-      </c>
-      <c r="B20" s="1">
-        <v>22</v>
-      </c>
-      <c r="J20" s="7"/>
-      <c r="K20" s="5">
-        <v>0</v>
-      </c>
-      <c r="L20" s="6">
-        <v>35</v>
-      </c>
-      <c r="M20" s="10"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="5">
-        <v>1</v>
-      </c>
-      <c r="P20" s="6">
-        <v>35</v>
-      </c>
-      <c r="Q20" s="10"/>
-    </row>
-  </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
+  <mergeCells count="31">
+    <mergeCell ref="J5:Q5"/>
     <mergeCell ref="Q7:Q8"/>
     <mergeCell ref="J16:J17"/>
     <mergeCell ref="M16:M17"/>
@@ -1722,6 +1227,640 @@
     <mergeCell ref="Q10:Q11"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="O9:P9"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="N19:N20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B6682CE-7F32-4427-9B91-E2C581AC3232}">
+  <dimension ref="A1:Q22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1">
+        <f>SUM(A1,B2)/SUM(A1:B2)</f>
+        <v>0.48571428571428571</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1">
+        <f>SUM(A3,B4)/SUM(A3:B4)</f>
+        <v>0.48571428571428571</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" ref="D5" si="0">SUM(A5,B6)/SUM(A5:B6)</f>
+        <v>0.51428571428571423</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="15"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>18</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="9"/>
+      <c r="M6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" ref="D7" si="1">SUM(A7,B8)/SUM(A7:B8)</f>
+        <v>0.51428571428571423</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="3">
+        <f>A1</f>
+        <v>17</v>
+      </c>
+      <c r="L7" s="4">
+        <f>B1</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="10">
+        <f>D1</f>
+        <v>0.48571428571428571</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="O7" s="3">
+        <f>A3</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="4">
+        <f>B3</f>
+        <v>18</v>
+      </c>
+      <c r="Q7" s="10">
+        <f>D3</f>
+        <v>0.48571428571428571</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>18</v>
+      </c>
+      <c r="J8" s="8"/>
+      <c r="K8" s="5">
+        <f>A2</f>
+        <v>18</v>
+      </c>
+      <c r="L8" s="6">
+        <f>B2</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="5">
+        <f>A4</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="6">
+        <f>B4</f>
+        <v>17</v>
+      </c>
+      <c r="Q8" s="10"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>18</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" ref="D9" si="2">SUM(A9,B10)/SUM(A9:B10)</f>
+        <v>0.48571428571428571</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="9"/>
+      <c r="M9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>17</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="3">
+        <f>A5</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="4">
+        <f>B5</f>
+        <v>17</v>
+      </c>
+      <c r="M10" s="11">
+        <f>D5</f>
+        <v>0.51428571428571423</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="O10" s="3">
+        <f>A7</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="4">
+        <f>B7</f>
+        <v>17</v>
+      </c>
+      <c r="Q10" s="10">
+        <f>D7</f>
+        <v>0.51428571428571423</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1">
+        <v>17</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" ref="D11" si="3">SUM(A11,B12)/SUM(A11:B12)</f>
+        <v>0.51428571428571423</v>
+      </c>
+      <c r="J11" s="8"/>
+      <c r="K11" s="5">
+        <f>A6</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="6">
+        <f>B6</f>
+        <v>18</v>
+      </c>
+      <c r="M11" s="12"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="5">
+        <f>A8</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="6">
+        <f>B8</f>
+        <v>18</v>
+      </c>
+      <c r="Q11" s="10"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1">
+        <v>18</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="9"/>
+      <c r="M12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>18</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" ref="D13" si="4">SUM(A13,B14)/SUM(A13:B14)</f>
+        <v>0.48571428571428571</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="3">
+        <f>A9</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="4">
+        <f>B9</f>
+        <v>18</v>
+      </c>
+      <c r="M13" s="11">
+        <f>D9</f>
+        <v>0.48571428571428571</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="O13" s="3">
+        <f>A11</f>
+        <v>0</v>
+      </c>
+      <c r="P13" s="4">
+        <f>B11</f>
+        <v>17</v>
+      </c>
+      <c r="Q13" s="10">
+        <f>D11</f>
+        <v>0.51428571428571423</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1">
+        <v>17</v>
+      </c>
+      <c r="J14" s="8"/>
+      <c r="K14" s="5">
+        <f>A10</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="6">
+        <f>B10</f>
+        <v>17</v>
+      </c>
+      <c r="M14" s="12"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="5">
+        <f>A12</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="6">
+        <f>B12</f>
+        <v>18</v>
+      </c>
+      <c r="Q14" s="10"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" ref="D15" si="5">SUM(A15,B16)/SUM(A15:B16)</f>
+        <v>0.88571428571428568</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="9"/>
+      <c r="M15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1">
+        <v>31</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="3">
+        <f>A13</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="4">
+        <f>B13</f>
+        <v>18</v>
+      </c>
+      <c r="M16" s="11">
+        <f>D13</f>
+        <v>0.48571428571428571</v>
+      </c>
+      <c r="N16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="O16" s="3">
+        <f>A15</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="4">
+        <f>B15</f>
+        <v>4</v>
+      </c>
+      <c r="Q16" s="10">
+        <f>D15</f>
+        <v>0.88571428571428568</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" ref="D17" si="6">SUM(A17,B18)/SUM(A17:B18)</f>
+        <v>1</v>
+      </c>
+      <c r="J17" s="8"/>
+      <c r="K17" s="5">
+        <f>A14</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="6">
+        <f>B14</f>
+        <v>17</v>
+      </c>
+      <c r="M17" s="12"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="5">
+        <f>A16</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="6">
+        <f>B16</f>
+        <v>31</v>
+      </c>
+      <c r="Q17" s="10"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1">
+        <v>35</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L18" s="9"/>
+      <c r="M18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>0</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" ref="D19" si="7">SUM(A19,B20)/SUM(A19:B20)</f>
+        <v>1</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="3">
+        <f>A17</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="4">
+        <f>B17</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="10">
+        <f>D17</f>
+        <v>1</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="O19" s="3">
+        <f>A19</f>
+        <v>0</v>
+      </c>
+      <c r="P19" s="4">
+        <f>B19</f>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="10">
+        <f>D19</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1">
+        <v>36</v>
+      </c>
+      <c r="J20" s="8"/>
+      <c r="K20" s="5">
+        <f>A18</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="6">
+        <f>B18</f>
+        <v>35</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="5">
+        <f>A20</f>
+        <v>0</v>
+      </c>
+      <c r="P20" s="6">
+        <f>B20</f>
+        <v>36</v>
+      </c>
+      <c r="Q20" s="10"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J22" s="1">
+        <f>SUM(D1:D20)/10</f>
+        <v>0.63714285714285723</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="31">
+    <mergeCell ref="J5:Q5"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="Q7:Q8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
